--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999/metrics/Trial_190__Reeval_Sobol_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999/metrics/Trial_190__Reeval_Sobol_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -6103,7 +6103,7 @@
                   <c:v>360.4917602539062</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>342.9276123046875</c:v>
+                  <c:v>342.9275817871094</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>354.0405578613281</c:v>
@@ -6115,7 +6115,7 @@
                   <c:v>357.6226501464844</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>357.91650390625</c:v>
+                  <c:v>357.9164733886719</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>356.66552734375</c:v>
@@ -6127,7 +6127,7 @@
                   <c:v>343.8930358886719</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>342.4662780761719</c:v>
+                  <c:v>342.4662475585938</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>356.6809997558594</c:v>
@@ -6196,7 +6196,7 @@
                   <c:v>341.3722534179688</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>355.4602966308594</c:v>
+                  <c:v>355.4602661132812</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>351.3773498535156</c:v>
@@ -6223,7 +6223,7 @@
                   <c:v>341.27099609375</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>354.6281127929688</c:v>
+                  <c:v>354.6281433105469</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>356.7186279296875</c:v>
@@ -6280,7 +6280,7 @@
                   <c:v>361.0278625488281</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>355.5423278808594</c:v>
+                  <c:v>355.5422973632812</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>345.3978881835938</c:v>
@@ -6307,13 +6307,13 @@
                   <c:v>341.1056823730469</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>358.3344116210938</c:v>
+                  <c:v>358.3343811035156</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>355.2602233886719</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>338.7413635253906</c:v>
+                  <c:v>338.7413940429688</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>353.6595458984375</c:v>
@@ -6389,7 +6389,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6404,7 +6404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6433,7 +6433,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6448,7 +6448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6477,7 +6477,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6492,7 +6492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -7004,13 +7004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H810"/>
+  <dimension ref="A1:S810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7035,8 +7035,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>362.4</v>
       </c>
@@ -7061,8 +7067,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>359.544</v>
       </c>
@@ -7082,13 +7094,19 @@
         <v>342.9726867675781</v>
       </c>
       <c r="G3">
+        <v>371</v>
+      </c>
+      <c r="H3">
+        <v>371</v>
+      </c>
+      <c r="R3">
         <v>368</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>358.201</v>
       </c>
@@ -7108,13 +7126,19 @@
         <v>329.1613159179688</v>
       </c>
       <c r="G4">
+        <v>371</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>368</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>355.336</v>
       </c>
@@ -7134,13 +7158,19 @@
         <v>357.057373046875</v>
       </c>
       <c r="G5">
+        <v>371</v>
+      </c>
+      <c r="H5">
+        <v>371</v>
+      </c>
+      <c r="R5">
         <v>368</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.427</v>
       </c>
@@ -7160,13 +7190,19 @@
         <v>342.7451477050781</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>371</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>368</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>360.582</v>
       </c>
@@ -7186,13 +7222,19 @@
         <v>357.1246337890625</v>
       </c>
       <c r="G7">
+        <v>371</v>
+      </c>
+      <c r="H7">
+        <v>371</v>
+      </c>
+      <c r="R7">
         <v>368</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>357.585</v>
       </c>
@@ -7212,7 +7254,7 @@
         <v>364.1971130371094</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>338.571</v>
       </c>
@@ -7232,7 +7274,7 @@
         <v>331.8170776367188</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>355.528</v>
       </c>
@@ -7252,7 +7294,7 @@
         <v>357.6032409667969</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>362.336</v>
       </c>
@@ -7272,7 +7314,7 @@
         <v>355.7515258789062</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.563</v>
       </c>
@@ -7292,7 +7334,7 @@
         <v>360.631591796875</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>330.878</v>
       </c>
@@ -7312,7 +7354,7 @@
         <v>349.5484619140625</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.384</v>
       </c>
@@ -7332,7 +7374,7 @@
         <v>351.6561889648438</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>359.105</v>
       </c>
@@ -7352,7 +7394,7 @@
         <v>357.7353210449219</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>358</v>
       </c>
@@ -7389,7 +7431,7 @@
         <v>343.105</v>
       </c>
       <c r="F17">
-        <v>342.9276123046875</v>
+        <v>342.9275817871094</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7469,7 +7511,7 @@
         <v>357.963</v>
       </c>
       <c r="F21">
-        <v>357.91650390625</v>
+        <v>357.9164733886719</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7549,7 +7591,7 @@
         <v>356.912</v>
       </c>
       <c r="F25">
-        <v>342.4662780761719</v>
+        <v>342.4662475585938</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8009,7 +8051,7 @@
         <v>342.805</v>
       </c>
       <c r="F48">
-        <v>355.4602966308594</v>
+        <v>355.4602661132812</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8189,7 +8231,7 @@
         <v>337.779</v>
       </c>
       <c r="F57">
-        <v>354.6281127929688</v>
+        <v>354.6281433105469</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8569,7 +8611,7 @@
         <v>342.169</v>
       </c>
       <c r="F76">
-        <v>355.5423278808594</v>
+        <v>355.5422973632812</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8749,7 +8791,7 @@
         <v>338.345</v>
       </c>
       <c r="F85">
-        <v>358.3344116210938</v>
+        <v>358.3343811035156</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8789,7 +8831,7 @@
         <v>356.934</v>
       </c>
       <c r="F87">
-        <v>338.7413635253906</v>
+        <v>338.7413940429688</v>
       </c>
     </row>
     <row r="88" spans="1:6">
